--- a/qring-common-test/src/main/resources/template/for_Col.xlsx
+++ b/qring-common-test/src/main/resources/template/for_Col.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\idea-project\qring-common\qring-common-test\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2988DD-C746-4FCC-9A0C-9CDC1FBBAD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2F7670-E695-48A5-A154-24CC2FA97255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>一级分类</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>{{'客户客户客户客户客户客户'}}{{merge:cal:le:(colList) * 3}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.tjmk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{v_fe: colList t.zqmk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{v_fe: valList t.three}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +185,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -185,7 +199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -493,7 +506,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,15 +516,15 @@
     <col min="3" max="3" width="89.875" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="36.125" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -519,27 +532,27 @@
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -562,15 +575,17 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -675,10 +690,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -688,17 +703,17 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -727,21 +742,21 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="9" t="s">
         <v>3</v>
       </c>
